--- a/source/class_schedule_xlsx_2024.xlsx
+++ b/source/class_schedule_xlsx_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/unifyingdatascience/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92316968-0A0D-664E-B886-31731AC5779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE8F067-4C58-804B-B642-855B5507EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2820" yWindow="1440" windowWidth="30240" windowHeight="17300" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>Topic</t>
   </si>
@@ -83,87 +83,6 @@
   </si>
   <si>
     <t>- `Stakeholder Management &lt;exercises/exercise_generating_questions.ipynb&gt;`_</t>
-  </si>
-  <si>
-    <t>Thrs, Jan 12</t>
-  </si>
-  <si>
-    <t>Tues, Jan 17</t>
-  </si>
-  <si>
-    <t>Thrs, Jan 19</t>
-  </si>
-  <si>
-    <t>Tues, Jan 24</t>
-  </si>
-  <si>
-    <t>Thrs, Jan 26</t>
-  </si>
-  <si>
-    <t>Tues, Jan 31</t>
-  </si>
-  <si>
-    <t>Thrs, Feb 2</t>
-  </si>
-  <si>
-    <t>Tues, Feb 7</t>
-  </si>
-  <si>
-    <t>Thrs, Feb 9</t>
-  </si>
-  <si>
-    <t>Tues, Feb 14</t>
-  </si>
-  <si>
-    <t>Thrs, Feb 16</t>
-  </si>
-  <si>
-    <t>Tues, Feb 21</t>
-  </si>
-  <si>
-    <t>Thrs, Feb 23</t>
-  </si>
-  <si>
-    <t>Tues, Feb 28</t>
-  </si>
-  <si>
-    <t>Thrs, Mar 2</t>
-  </si>
-  <si>
-    <t>Tues, Mar 7</t>
-  </si>
-  <si>
-    <t>Thrs, Mar 9</t>
-  </si>
-  <si>
-    <t>Tues, Mar 14</t>
-  </si>
-  <si>
-    <t>Thrs, Mar 16</t>
-  </si>
-  <si>
-    <t>Tues, Mar 21</t>
-  </si>
-  <si>
-    <t>Thrs, Mar 23</t>
-  </si>
-  <si>
-    <t>Tues, Mar 28</t>
-  </si>
-  <si>
-    <t>Thrs, Mar 30</t>
-  </si>
-  <si>
-    <t>Tues, Apr 4</t>
-  </si>
-  <si>
-    <t>Thrs, Apr 6</t>
-  </si>
-  <si>
-    <t>Tues, Apr 11</t>
-  </si>
-  <si>
-    <t>Thrs, Apr 13</t>
   </si>
   <si>
     <t>Tues, Apr 18</t>
@@ -348,16 +267,10 @@
     <t>Bias</t>
   </si>
   <si>
-    <t>Interpretability</t>
-  </si>
-  <si>
     <t>Review Day Part 2</t>
   </si>
   <si>
     <t>**FINAL PROJECT DUE BY 9am**</t>
-  </si>
-  <si>
-    <t>Tues, May 2</t>
   </si>
   <si>
     <t xml:space="preserve">Dangers of Early Stopping:
@@ -402,16 +315,92 @@
 **FINAL PROJECT ROUGH DRAFTS DUE**</t>
   </si>
   <si>
-    <t>Wed, Apr 19</t>
-  </si>
-  <si>
-    <t>**FINAL PROJECT ROUGH DRAFTS DUE 9am** if you want feedback by Friday</t>
-  </si>
-  <si>
-    <t>Mon, Apr 24</t>
-  </si>
-  <si>
-    <t>**FINAL PROJECT ROUGH DRAFTS DUE 9am**. Feedback guaranteed by 27th.</t>
+    <t>Thrs, Jan 11</t>
+  </si>
+  <si>
+    <t>Tues, Jan 16</t>
+  </si>
+  <si>
+    <t>Thrs, Jan 18</t>
+  </si>
+  <si>
+    <t>Tues, Jan 23</t>
+  </si>
+  <si>
+    <t>Thrs, Jan 25</t>
+  </si>
+  <si>
+    <t>Tues, Jan 30</t>
+  </si>
+  <si>
+    <t>Thrs, Feb 1</t>
+  </si>
+  <si>
+    <t>Tues, Feb 6</t>
+  </si>
+  <si>
+    <t>Thrs, Feb 8</t>
+  </si>
+  <si>
+    <t>Tues, Feb 13</t>
+  </si>
+  <si>
+    <t>Thrs, Feb 15</t>
+  </si>
+  <si>
+    <t>Tues, Feb 20</t>
+  </si>
+  <si>
+    <t>Thrs, Feb 22</t>
+  </si>
+  <si>
+    <t>Tues, Feb 27</t>
+  </si>
+  <si>
+    <t>Thrs, Feb 29</t>
+  </si>
+  <si>
+    <t>Tues, Mar 5</t>
+  </si>
+  <si>
+    <t>Thrs, Mar 7</t>
+  </si>
+  <si>
+    <t>Tues, Mar 12</t>
+  </si>
+  <si>
+    <t>Thrs, Mar 14</t>
+  </si>
+  <si>
+    <t>Tues, Mar 19</t>
+  </si>
+  <si>
+    <t>Thrs, Mar 21</t>
+  </si>
+  <si>
+    <t>Tues, Mar 26</t>
+  </si>
+  <si>
+    <t>Thrs, Mar 28</t>
+  </si>
+  <si>
+    <t>Tues, Apr 2</t>
+  </si>
+  <si>
+    <t>Thrs, Apr 4</t>
+  </si>
+  <si>
+    <t>Tues, Apr 9</t>
+  </si>
+  <si>
+    <t>Thrs, Apr 11</t>
+  </si>
+  <si>
+    <t>Tues, Apr 16</t>
+  </si>
+  <si>
+    <t>Interpretability
+**LAST CLASS**</t>
   </si>
 </sst>
 </file>
@@ -844,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B7305-17E2-2E47-A46F-9F5E56C2016C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -869,12 +858,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -886,27 +875,27 @@
     </row>
     <row r="3" spans="1:4" ht="69">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="35">
       <c r="A4" s="9" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
@@ -914,24 +903,24 @@
     </row>
     <row r="5" spans="1:4" ht="119" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="247" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -939,77 +928,77 @@
     </row>
     <row r="7" spans="1:4" ht="86">
       <c r="A7" s="9" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="35">
       <c r="A8" s="9" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="52">
       <c r="A9" s="9" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="76" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="141" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1017,13 +1006,13 @@
     </row>
     <row r="13" spans="1:4" ht="137">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
@@ -1031,13 +1020,13 @@
     </row>
     <row r="14" spans="1:4" ht="120">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
@@ -1045,13 +1034,13 @@
     </row>
     <row r="15" spans="1:4" ht="171">
       <c r="A15" s="9" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>6</v>
@@ -1059,43 +1048,43 @@
     </row>
     <row r="16" spans="1:4" ht="18">
       <c r="A16" s="9" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="9" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="9" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="9" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>8</v>
@@ -1103,7 +1092,7 @@
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>8</v>
@@ -1111,10 +1100,10 @@
     </row>
     <row r="21" spans="1:4" ht="178" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -1125,7 +1114,7 @@
     </row>
     <row r="22" spans="1:4" ht="63" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1133,113 +1122,97 @@
     </row>
     <row r="23" spans="1:4" ht="205">
       <c r="A23" s="9" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="142">
       <c r="A24" s="9" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="35">
       <c r="A25" s="9" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="9" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="9" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="9" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="222">
       <c r="A29" s="9" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18">
+        <v>15</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="137">
       <c r="A31" s="9" t="s">
-        <v>99</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18">
-      <c r="A32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="137">
-      <c r="A33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
